--- a/support/aggregations/aggr_to_EU12-EU15.xlsx
+++ b/support/aggregations/aggr_to_EU12-EU15.xlsx
@@ -2426,13 +2426,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2450,7 +2456,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -2479,10 +2492,10 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2806,241 +2819,241 @@
     <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>632</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>633</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>634</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>635</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>636</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>432</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>637</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>638</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>639</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>640</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>641</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>642</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>643</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2" t="s">
         <v>644</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2" t="s">
         <v>645</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2" t="s">
         <v>646</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2" t="s">
         <v>453</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2" t="s">
         <v>454</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>647</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2" t="s">
         <v>648</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2" t="s">
         <v>649</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2" t="s">
         <v>650</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="2" t="s">
         <v>651</v>
       </c>
       <c r="B25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="2" t="s">
         <v>652</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="2" t="s">
         <v>653</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="2" t="s">
         <v>654</v>
       </c>
       <c r="B28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="2" t="s">
         <v>655</v>
       </c>
       <c r="B29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="2" t="s">
         <v>656</v>
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="2" t="s">
         <v>657</v>
       </c>
       <c r="B31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="2" t="s">
         <v>658</v>
       </c>
       <c r="B32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="2" t="s">
         <v>659</v>
       </c>
       <c r="B33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="2" t="s">
         <v>660</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="2" t="s">
         <v>661</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="2" t="s">
         <v>662</v>
       </c>
       <c r="B36" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="2" t="s">
         <v>663</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="2" t="s">
         <v>664</v>
       </c>
       <c r="B38" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="2" t="s">
         <v>665</v>
       </c>
       <c r="B39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="2" t="s">
         <v>666</v>
       </c>
@@ -7636,7 +7649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -7644,7 +7657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -7652,7 +7665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -7660,7 +7673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -7668,13 +7681,13 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -7682,7 +7695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -7690,7 +7703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -7698,13 +7711,13 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -7712,13 +7725,13 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -7726,19 +7739,19 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -7746,7 +7759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -7754,7 +7767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -7762,7 +7775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -7770,13 +7783,13 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -7784,13 +7797,13 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -7798,7 +7811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -7806,7 +7819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -7814,13 +7827,13 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -7828,7 +7841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -7836,7 +7849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -7844,49 +7857,49 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
